--- a/biology/Botanique/Indocalamus_tessellatus/Indocalamus_tessellatus.xlsx
+++ b/biology/Botanique/Indocalamus_tessellatus/Indocalamus_tessellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Indocalamus tessellatus (chinois simplifié : 箬竹 ; chinois traditionnel : 篛竹 ; pinyin : ruòzhú), le bambou à feuilles larges, est une espèce de plantes monocotylédones du genre Indocalamus, originaire de Chine.
@@ -513,9 +525,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle d’Indocalamus tesselatus se limite aux provinces chinoises de Hunan et Zhejiang, le long de la vallée du Yang-Tsé. La plante se rencontre dans les forêts ouvertes sur les pentes montagneuses de 300 à 1400 mètres d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle d’Indocalamus tesselatus se limite aux provinces chinoises de Hunan et Zhejiang, le long de la vallée du Yang-Tsé. La plante se rencontre dans les forêts ouvertes sur les pentes montagneuses de 300 à 1400 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (10 juin 2018)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (10 juin 2018) :
 Arundinaria  hamadae (Hatus.) Demoly
 Arundinaria ragamowskii Pfitzer, nom.  superfl.
 Arundo ragamowskii C.F.Wheeler, nom.  nud.
@@ -563,9 +582,7 @@
 Sasa tessellata (Munro) Makino &amp;  Shibata
 Sasa tessellata var. ragomovskii  P.Vilm.
 Sasamorpha tessellata (Munro)  Koidz.
-Liste des formes
-Selon NCBI  (10 juin 2018)[4] :
-Indocalamus tessellatus f. hamadae (Hatus.) Rifat ex Ohrnb.</t>
+</t>
         </is>
       </c>
     </row>
@@ -590,12 +607,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des formes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (10 juin 2018) :
+Indocalamus tessellatus f. hamadae (Hatus.) Rifat ex Ohrnb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Indocalamus_tessellatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Indocalamus_tessellatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses feuilles sont notamment utilisées pour la confection des zongzi[5], sorte de berlingots de riz gluant fourrés de différents ingrédients, entourés de ces feuilles et bouillis, la feuille imprégnant de son parfum le riz. Ils sont également parfois réchauffés à la vapeur.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles sont notamment utilisées pour la confection des zongzi, sorte de berlingots de riz gluant fourrés de différents ingrédients, entourés de ces feuilles et bouillis, la feuille imprégnant de son parfum le riz. Ils sont également parfois réchauffés à la vapeur.
 </t>
         </is>
       </c>
